--- a/Assets/Resources/itemdatasheet.xlsx
+++ b/Assets/Resources/itemdatasheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\moonshot\Capstone2\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB702BDA-7D5D-4432-9A80-A0D9BBB5E9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905563B4-71C1-4F02-8E61-676FEE07AF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10050" yWindow="2640" windowWidth="18510" windowHeight="10200" xr2:uid="{B83F5B13-60E2-423E-8CAC-EF9A850246CB}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="18510" windowHeight="10200" xr2:uid="{B83F5B13-60E2-423E-8CAC-EF9A850246CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ItemNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,38 @@
   </si>
   <si>
     <t>int 자료형은 뭐라뭐라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플러스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이너스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곱하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나누기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플러스야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이너스야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곱하기야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나누기야!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E798F519-C974-4692-91D1-A477D4B0FCEC}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -492,6 +524,50 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/itemdatasheet.xlsx
+++ b/Assets/Resources/itemdatasheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\moonshot\Capstone2\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905563B4-71C1-4F02-8E61-676FEE07AF5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EBEA4F-4A49-4415-A100-EE6F03955A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="18510" windowHeight="10200" xr2:uid="{B83F5B13-60E2-423E-8CAC-EF9A850246CB}"/>
+    <workbookView xWindow="7050" yWindow="3540" windowWidth="18510" windowHeight="10200" xr2:uid="{B83F5B13-60E2-423E-8CAC-EF9A850246CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>ItemNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,50 @@
   </si>
   <si>
     <t>나누기야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티셔츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용기의증표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지혜의 증표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘의 증표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경비병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별찍기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E798F519-C974-4692-91D1-A477D4B0FCEC}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -568,6 +612,94 @@
         <v>16</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/itemdatasheet.xlsx
+++ b/Assets/Resources/itemdatasheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\moonshot\Capstone2\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EBEA4F-4A49-4415-A100-EE6F03955A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33B48FBB-F1F9-4609-94E7-E551A8F51346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="3540" windowWidth="18510" windowHeight="10200" xr2:uid="{B83F5B13-60E2-423E-8CAC-EF9A850246CB}"/>
+    <workbookView xWindow="7395" yWindow="3885" windowWidth="18510" windowHeight="10200" xr2:uid="{B83F5B13-60E2-423E-8CAC-EF9A850246CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>ItemNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>바지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>티셔츠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,19 +130,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경비병</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동굴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>별찍기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증표 3개를 모으면 무슨 일이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +506,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -639,10 +631,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -650,10 +642,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -661,10 +653,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -672,7 +664,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
@@ -683,10 +675,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -694,10 +686,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/itemdatasheet.xlsx
+++ b/Assets/Resources/itemdatasheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\moonshot\Capstone2\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이윤수\Desktop\blogtmp\엓겔파일\엓겔파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33B48FBB-F1F9-4609-94E7-E551A8F51346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC750E7D-F255-41E7-921B-CCFFB415E485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7395" yWindow="3885" windowWidth="18510" windowHeight="10200" xr2:uid="{B83F5B13-60E2-423E-8CAC-EF9A850246CB}"/>
+    <workbookView xWindow="7740" yWindow="4230" windowWidth="18510" windowHeight="10200" xr2:uid="{B83F5B13-60E2-423E-8CAC-EF9A850246CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>ItemNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,18 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">print는 뭐라뭐라 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string 자료형은 뭐라뭐라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int 자료형은 뭐라뭐라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>플러스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,22 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>플러스야!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이너스야!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>곱하기야!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나누기야!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>칼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,7 +110,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>증표 3개를 모으면 무슨 일이</t>
+    <t>무한대로 늘어나는 별. 반복문을 통해 다양한 별자리를 만들 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>print는 텍스트 및 숫자 데이터, 변수 및 기타 데이터 유형 같은 모든 종류의 정보를 출력하는 데 사용된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int 자료형은 소수점이 없는 정수를 변수로 선언할때 사용하는 자료형이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수들이나 숫자들을 더하는데 사용하는 더하기 연산자이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수들이나 숫자들을 빼는데 사용하는 빼기 연산자이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수들이나 숫자들을 곱하는데 사용하는 곱하기 연산자이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수들이나 숫자들을 나누는데 사용하는 나누기 연산자이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날카로운 칼이다. 다룰 때 조심하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷이 더러워지면 갈아입는게 위생에 좋다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 체력을 회복 시켜주는 포션.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배고플 때 먹으려고 산 빵이다. 딱딱해서 칼 대신 써도 될 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가진 자의 용기를 복돋아주는 증표. 모든 증표를 모으면 특별한 일이 일어난다고 전해진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가진 자의 지혜를 샘솟게 하는 증표. 모든 증표를 모으면 신비한 일이 일어난다고 전해진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가진 자의 힘을 강력하게 만드는 증표. 모든 증표를 모으면 희귀한 일이 일어난다고 전해진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 자료형은 문자, 단어 등으로 구성된 문자들의 집합을 변수로 선언할 때 사용하는 자료형이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,14 +534,14 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.875" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="77" customWidth="1"/>
+    <col min="3" max="3" width="100.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -535,7 +563,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -546,7 +574,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -557,7 +585,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -565,10 +593,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -576,10 +604,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -587,10 +615,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -598,10 +626,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -609,10 +637,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -620,10 +648,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -631,10 +659,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -642,10 +670,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -653,10 +681,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -664,10 +692,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -675,10 +703,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -686,10 +714,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
